--- a/prompt_engineering/experiments/metadata_llama32_3B_grok.xlsx
+++ b/prompt_engineering/experiments/metadata_llama32_3B_grok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24EM03456</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24CU052383</t>
+          <t>24CU550062-2ebus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>OST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Curepath</t>
+          <t>CurePath</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adénocarcinome TTF1+</t>
+          <t>Carcinome non à petites cellules NOS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,34 +503,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24EM03462</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24219576 1.1. Foie</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CLP</t>
-        </is>
-      </c>
+          <t>24CU052383</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CMP</t>
+          <t>Curepath</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Métastase hépatique d’un adénocarcinome mammaire</t>
+          <t>Adénocarcinome TTF1+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,34 +536,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24EM04347</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23CU032757-1.02</t>
+          <t>24CU002162-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OST</t>
+          <t>CLP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CurePath</t>
+          <t>Curepath</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>carcinome urothélial invasif</t>
+          <t>Adénocarcinome colorectal métastatique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,34 +573,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24EM03451</t>
+          <t>24EM03462</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24BB11466 07</t>
+          <t>24219576 1.1. Foie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>CLP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HUB</t>
+          <t>CMP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tumeur de la granulosa</t>
+          <t>Métastase hépatique d’un adénocarcinome mammaire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -621,37 +617,333 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24EM03839</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24EC09559 frottis 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Erasme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PF2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24EM04099</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24CU062291-frottis2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PF1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24EM04107</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24CU062294-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PF1 oncocytaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24EM04337</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2431646-1.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CMP Pathology</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>masse gastrique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24EM04347</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23CU032757-1.02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CurePath</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>carcinome urothélial invasif</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24EM03451</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24BB11466 07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HUB</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tumeur de la granulosa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>24EM03460</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>24MH9721 BN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>CLP</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Centre Hospitalier de Mouscron</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adénocarcinome lieberkühnien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Optimale</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24EM03308</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24218507-1.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CMP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adénocarcinome pulmonaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24EM03352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24MH9794 RF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20.0</t>
         </is>
       </c>
     </row>
